--- a/Data/CCSRawFLP.xlsx
+++ b/Data/CCSRawFLP.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31BD7FA-D9A8-BE4E-B8CD-3881A01AEE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F31BD7FA-D9A8-BE4E-B8CD-3881A01AEE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ABCFC03-6809-1D43-ADCB-4261AE937012}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{5A3BD195-4F8C-2440-A73C-E07C9749CC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="27">
   <si>
     <t>Slide number</t>
   </si>
@@ -90,45 +90,6 @@
   </si>
   <si>
     <t>propmixo</t>
-  </si>
-  <si>
-    <t>IngestionRate</t>
-  </si>
-  <si>
-    <t>bacteria</t>
-  </si>
-  <si>
-    <t>grazing</t>
-  </si>
-  <si>
-    <t>unreinIR</t>
-  </si>
-  <si>
-    <t>unreinclearance</t>
-  </si>
-  <si>
-    <t>unreinSGR</t>
-  </si>
-  <si>
-    <t>unreinGE</t>
-  </si>
-  <si>
-    <t>SameIR</t>
-  </si>
-  <si>
-    <t>SameIRGE</t>
-  </si>
-  <si>
-    <t>submixoconc</t>
-  </si>
-  <si>
-    <t>avnano</t>
-  </si>
-  <si>
-    <t>sdnano</t>
-  </si>
-  <si>
-    <t>loggrazing</t>
   </si>
   <si>
     <t>SUR</t>
@@ -567,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5152B-7FE4-9C49-8D3E-DC81BE6C4A67}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -628,45 +589,19 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="2">
@@ -676,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>303</v>
@@ -694,19 +629,19 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2">
         <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>40</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>30</v>
@@ -724,51 +659,11 @@
         <f>G2/(G2+F2)*100</f>
         <v>0.65573770491803274</v>
       </c>
-      <c r="S2">
-        <v>-7</v>
-      </c>
-      <c r="T2" s="4">
-        <v>381026.94199999998</v>
-      </c>
-      <c r="U2" s="5">
-        <f>(S2*P2*T2*24)/(1000000)</f>
-        <v>-837.91543390091419</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <f>V2/(10^5)</f>
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="X2" s="5">
-        <f>W2*T2*24</f>
-        <v>640.1252625599999</v>
-      </c>
-      <c r="Y2" s="5">
-        <f>X2*P2</f>
-        <v>8379.154339009141</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="5">
-        <f>(T2*P2*Z2*24)/(1000000)</f>
-        <v>119.70220484298774</v>
-      </c>
-      <c r="AB2">
-        <v>5.6099428499999995</v>
-      </c>
-      <c r="AC2">
-        <v>1938.7027519999999</v>
-      </c>
-      <c r="AD2">
-        <v>44.296253173304869</v>
-      </c>
-      <c r="AE2">
-        <f>LOG10(AA2)</f>
-        <v>2.0781021499245744</v>
-      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2">
@@ -778,13 +673,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>306</v>
@@ -796,19 +691,19 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
         <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>40</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>30</v>
@@ -826,51 +721,11 @@
         <f t="shared" ref="R3:R5" si="0">G3/(G3+F3)*100</f>
         <v>0.32573289902280134</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="4">
-        <v>317831.799</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" ref="U3:U5" si="1">(S3*P3*T3*24)/(1000000)</f>
-        <v>52.552116271257184</v>
-      </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W22" si="2">V3/(10^5)</f>
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="X3" s="5">
-        <f t="shared" ref="X3:X22" si="3">W3*T3*24</f>
-        <v>228.83889528</v>
-      </c>
-      <c r="Y3" s="5">
-        <f t="shared" ref="Y3:Y22" si="4">X3*P3</f>
-        <v>1576.5634881377155</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="5">
-        <f t="shared" ref="AA3:AA22" si="5">(T3*P3*Z3*24)/(1000000)</f>
-        <v>52.552116271257184</v>
-      </c>
-      <c r="AB3">
-        <v>12.502991550999997</v>
-      </c>
-      <c r="AC3">
-        <v>2583.9090605000001</v>
-      </c>
-      <c r="AD3">
-        <v>624.09890732411986</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE22" si="6">LOG10(AA3)</f>
-        <v>1.7205902097348262</v>
-      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2">
@@ -880,13 +735,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>300</v>
@@ -898,19 +753,19 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2">
         <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>40</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>30</v>
@@ -928,51 +783,11 @@
         <f t="shared" si="0"/>
         <v>0.66225165562913912</v>
       </c>
-      <c r="S4">
-        <v>1.5</v>
-      </c>
-      <c r="T4" s="4">
-        <v>959287.26199999999</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" si="1"/>
-        <v>786.17378229687256</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" si="3"/>
-        <v>690.68682864000004</v>
-      </c>
-      <c r="Y4" s="5">
-        <f t="shared" si="4"/>
-        <v>15723.475645937453</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="5">
-        <f t="shared" si="5"/>
-        <v>524.11585486458171</v>
-      </c>
-      <c r="AB4">
-        <v>13.77880702</v>
-      </c>
-      <c r="AC4">
-        <v>4609.8214650000009</v>
-      </c>
-      <c r="AD4">
-        <v>537.01607890509115</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="6"/>
-        <v>2.7194272976076683</v>
-      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2">
@@ -982,13 +797,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>307</v>
@@ -1000,19 +815,19 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2">
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>40</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2">
         <v>30</v>
@@ -1030,51 +845,11 @@
         <f t="shared" si="0"/>
         <v>0.32467532467532467</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="4">
-        <v>1036428.52</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="1"/>
-        <v>342.73796561050108</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="3"/>
-        <v>248.74284480000003</v>
-      </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="4"/>
-        <v>3427.3796561050108</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="5"/>
-        <v>342.73796561050108</v>
-      </c>
-      <c r="AB5">
-        <v>22.764985509999999</v>
-      </c>
-      <c r="AC5">
-        <v>3697.0336465</v>
-      </c>
-      <c r="AD5">
-        <v>399.21243581671706</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="6"/>
-        <v>2.5349622145608688</v>
-      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2">
@@ -1084,13 +859,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>310</v>
@@ -1102,19 +877,19 @@
         <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2">
         <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>40</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
         <v>10</v>
@@ -1131,51 +906,15 @@
       <c r="R6" s="2">
         <v>1.587301587</v>
       </c>
-      <c r="S6" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1768858.8195256651</v>
-      </c>
-      <c r="U6" s="5">
-        <f>(S6*P6*T6*24)/(1000000)</f>
-        <v>6505.7446995777054</v>
-      </c>
-      <c r="V6">
-        <v>8</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="X6" s="5">
-        <f t="shared" si="3"/>
-        <v>3396.2089334892771</v>
-      </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="4"/>
-        <v>325287.23497888522</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="5">
-        <f t="shared" si="5"/>
-        <v>4066.0904372360651</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>95.779512199999999</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>6206.2535265000006</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>378.90142992323661</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="6"/>
-        <v>3.6091770339074771</v>
-      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2">
@@ -1185,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>306</v>
@@ -1203,19 +942,19 @@
         <v>7</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2">
         <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2">
         <v>10</v>
@@ -1232,51 +971,15 @@
       <c r="R7" s="2">
         <v>1.923076923</v>
       </c>
-      <c r="S7" s="2">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1768858.8195256651</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" ref="U7:U9" si="7">(S7*P7*T7*24)/(1000000)</f>
-        <v>7528.8255169687018</v>
-      </c>
-      <c r="V7">
-        <v>7</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="3"/>
-        <v>2971.682816803117</v>
-      </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="4"/>
-        <v>451729.53101812198</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="5">
-        <f t="shared" si="5"/>
-        <v>6453.2790145446015</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>152.01135479999999</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>6616.2366394999999</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>1607.0309148968731</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="6"/>
-        <v>3.809780442707853</v>
-      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2">
@@ -1286,13 +989,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>303</v>
@@ -1304,19 +1007,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2">
         <v>63</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>40</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2">
         <v>30</v>
@@ -1333,51 +1036,16 @@
       <c r="R8" s="2">
         <v>0.32040328089999998</v>
       </c>
-      <c r="S8" s="2">
-        <v>2</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1112457.186465855</v>
-      </c>
-      <c r="U8" s="5">
-        <f t="shared" si="7"/>
-        <v>221.89586658924108</v>
-      </c>
-      <c r="V8" s="2">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="X8" s="5">
-        <f t="shared" si="3"/>
-        <v>533.97944950361045</v>
-      </c>
-      <c r="Y8" s="5">
-        <f t="shared" si="4"/>
-        <v>2218.9586658924113</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="5">
-        <f t="shared" si="5"/>
-        <v>110.94793329462054</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>8.6150884019999996</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>1606.5112785000001</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>491.28473908433904</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="6"/>
-        <v>2.0451192167338523</v>
-      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="2"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2">
@@ -1387,13 +1055,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>302</v>
@@ -1405,19 +1073,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2">
         <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>40</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2">
         <v>30</v>
@@ -1434,51 +1102,16 @@
       <c r="R9" s="2">
         <v>0.33003300330000002</v>
       </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>1112457.186465855</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="7"/>
-        <v>151.95043036899384</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="3"/>
-        <v>266.98972475180523</v>
-      </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="4"/>
-        <v>1519.5043036899388</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="5">
-        <f t="shared" si="5"/>
-        <v>151.95043036899384</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>5.6912463769999997</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1368.0603635</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>495.95909957407139</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="6"/>
-        <v>2.181701934469364</v>
-      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="2"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="7">
@@ -1488,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>340</v>
@@ -1506,19 +1139,19 @@
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2">
         <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>40</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N10" s="2">
         <v>30</v>
@@ -1535,51 +1168,16 @@
       <c r="R10" s="2">
         <v>0.87463556850000002</v>
       </c>
-      <c r="S10" s="2">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="T10" s="4">
-        <v>371642.77600000001</v>
-      </c>
-      <c r="U10" s="5">
-        <f>(S10*P10*T10*24)/(1000000)</f>
-        <v>301.30091681968798</v>
-      </c>
-      <c r="V10" s="2">
-        <v>4</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="X10" s="5">
-        <f t="shared" si="3"/>
-        <v>356.77706496000008</v>
-      </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="4"/>
-        <v>9039.0275045906401</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="5">
-        <f t="shared" si="5"/>
-        <v>225.97568761476597</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>25.335225810000001</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>5089.9172399999998</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>3137.5623993834884</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="6"/>
-        <v>2.354061716568959</v>
-      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="2"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="7">
@@ -1589,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>319</v>
@@ -1607,19 +1205,19 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2">
         <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2">
         <v>40</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2">
         <v>30</v>
@@ -1636,51 +1234,16 @@
       <c r="R11" s="2">
         <v>0.93167701859999996</v>
       </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="4">
-        <v>371642.77600000001</v>
-      </c>
-      <c r="U11" s="5">
-        <f t="shared" ref="U11:U15" si="8">(S11*P11*T11*24)/(1000000)</f>
-        <v>280.20985260306429</v>
-      </c>
-      <c r="V11" s="2">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="X11" s="5">
-        <f t="shared" si="3"/>
-        <v>267.58279872000003</v>
-      </c>
-      <c r="Y11" s="5">
-        <f t="shared" si="4"/>
-        <v>8406.2955780919292</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="5">
-        <f t="shared" si="5"/>
-        <v>280.20985260306429</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>31.415679999999998</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>4586.3983939999998</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1761.9183610563041</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="6"/>
-        <v>2.4474834016703677</v>
-      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="2"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="7">
@@ -1690,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2">
         <v>352</v>
@@ -1708,19 +1271,19 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2">
         <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>40</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N12" s="2">
         <v>30</v>
@@ -1737,51 +1300,16 @@
       <c r="R12" s="2">
         <v>0.5649717514</v>
       </c>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <v>371642.77600000001</v>
-      </c>
-      <c r="U12" s="5">
-        <f t="shared" si="8"/>
-        <v>311.34428066016102</v>
-      </c>
-      <c r="V12" s="2">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="X12" s="5">
-        <f t="shared" si="3"/>
-        <v>178.38853248000004</v>
-      </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="4"/>
-        <v>6226.8856132032206</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="5">
-        <f t="shared" si="5"/>
-        <v>311.34428066016102</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>34.906311109999997</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>6736.9180445000002</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>839.20463540774404</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="6"/>
-        <v>2.4932408922172189</v>
-      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="2"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="7">
@@ -1791,13 +1319,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>303</v>
@@ -1809,19 +1337,19 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2">
         <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <v>40</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2">
         <v>30</v>
@@ -1838,51 +1366,12 @@
       <c r="R13">
         <v>0.34804539720000005</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13" s="4">
-        <v>338137.217</v>
-      </c>
-      <c r="U13" s="5">
-        <f>(S13*P13*T13*24)/(1000000)</f>
-        <v>249.94848479546187</v>
-      </c>
-      <c r="V13" s="2">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="X13" s="5">
-        <f t="shared" si="3"/>
-        <v>162.30586416</v>
-      </c>
-      <c r="Y13" s="5">
-        <f t="shared" si="4"/>
-        <v>4998.9696959092371</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="5">
-        <f t="shared" si="5"/>
-        <v>249.94848479546187</v>
-      </c>
-      <c r="AB13">
-        <v>4.6199529399999975</v>
-      </c>
-      <c r="AC13">
-        <v>6574.1930355000004</v>
-      </c>
-      <c r="AD13">
-        <v>2698.3768438739157</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="6"/>
-        <v>2.3978505083742085</v>
-      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="2"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="7">
@@ -1892,13 +1381,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2">
         <v>310</v>
@@ -1910,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2">
         <v>6</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L14" s="2">
         <v>40</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N14" s="2">
         <v>30</v>
@@ -1939,51 +1428,12 @@
       <c r="R14">
         <v>0.32154340840000001</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14" s="4">
-        <v>338137.217</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="8"/>
-        <v>354.09368685443565</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X14" s="5">
-        <f t="shared" si="3"/>
-        <v>81.152932079999999</v>
-      </c>
-      <c r="Y14" s="5">
-        <f t="shared" si="4"/>
-        <v>3540.9368685443565</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="5">
-        <f t="shared" si="5"/>
-        <v>354.09368685443565</v>
-      </c>
-      <c r="AB14">
-        <v>43.632888889999997</v>
-      </c>
-      <c r="AC14">
-        <v>11466.307650000001</v>
-      </c>
-      <c r="AD14">
-        <v>3074.3928459785925</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="6"/>
-        <v>2.5491181837795081</v>
-      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="2"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="7">
@@ -1993,13 +1443,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>324</v>
@@ -2011,19 +1461,19 @@
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2">
         <v>44</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L15" s="2">
         <v>40</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N15" s="2">
         <v>10</v>
@@ -2040,51 +1490,12 @@
       <c r="R15">
         <v>0.61349693250000004</v>
       </c>
-      <c r="S15">
-        <v>1.5</v>
-      </c>
-      <c r="T15" s="4">
-        <v>1060462.81</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="8"/>
-        <v>1362.892920850936</v>
-      </c>
-      <c r="V15" s="2">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="X15" s="5">
-        <f t="shared" si="3"/>
-        <v>763.53322320000007</v>
-      </c>
-      <c r="Y15" s="5">
-        <f t="shared" si="4"/>
-        <v>27257.858417018717</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="5">
-        <f t="shared" si="5"/>
-        <v>908.5952805672905</v>
-      </c>
-      <c r="AB15">
-        <v>35.69963636</v>
-      </c>
-      <c r="AC15">
-        <v>6414.3846630000007</v>
-      </c>
-      <c r="AD15">
-        <v>892.43037797076272</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="6"/>
-        <v>2.9583704766686729</v>
-      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="2"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="7">
@@ -2094,13 +1505,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
         <v>307</v>
@@ -2112,19 +1523,19 @@
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2">
         <v>34</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L16" s="2">
         <v>40</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N16" s="2">
         <v>10</v>
@@ -2141,53 +1552,14 @@
       <c r="R16">
         <v>1.286173633</v>
       </c>
-      <c r="S16">
-        <v>1.25</v>
-      </c>
-      <c r="T16" s="4">
-        <v>1060462.81</v>
-      </c>
-      <c r="U16" s="5">
-        <f>(S16*P16*T16*24)/(1000000)</f>
-        <v>2939.5729667283745</v>
-      </c>
-      <c r="V16" s="2">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="X16" s="5">
-        <f t="shared" si="3"/>
-        <v>1272.555372</v>
-      </c>
-      <c r="Y16" s="5">
-        <f t="shared" si="4"/>
-        <v>117582.91866913498</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="5">
-        <f t="shared" si="5"/>
-        <v>2351.6583733826997</v>
-      </c>
-      <c r="AB16">
-        <v>92.399058819999993</v>
-      </c>
-      <c r="AC16">
-        <v>6331.2157430000007</v>
-      </c>
-      <c r="AD16">
-        <v>1075.3849945039433</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="6"/>
-        <v>3.3713742318042343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="2"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="2">
         <v>69</v>
       </c>
@@ -2195,13 +1567,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>310</v>
@@ -2213,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2">
         <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L17" s="2">
         <v>40</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N17" s="2">
         <v>30</v>
@@ -2242,52 +1614,15 @@
       <c r="R17" s="2">
         <v>0</v>
       </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>443989.772</v>
-      </c>
-      <c r="U17" s="5">
-        <f t="shared" ref="U17:U21" si="9">(S17*P17*T17*24)/(1000000)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>2517.3619650000001</v>
-      </c>
-      <c r="AD17">
-        <v>440.73085223987437</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="S17" s="2"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="2"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="2">
         <v>75</v>
       </c>
@@ -2295,13 +1630,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>303</v>
@@ -2313,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2">
         <v>28</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2">
         <v>40</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N18" s="2">
         <v>30</v>
@@ -2342,46 +1677,15 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>443989.772</v>
-      </c>
-      <c r="U18" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="S18" s="2"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="2"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="2">
         <v>128</v>
       </c>
@@ -2389,13 +1693,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2">
         <v>301</v>
@@ -2407,19 +1711,19 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J19" s="2">
         <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L19" s="2">
         <v>40</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N19" s="2">
         <v>30</v>
@@ -2436,53 +1740,13 @@
       <c r="R19">
         <v>0.33112582779999999</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <v>907793.24800000002</v>
-      </c>
-      <c r="U19" s="5">
-        <f t="shared" si="9"/>
-        <v>285.18942192590987</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X19" s="5">
-        <f t="shared" si="3"/>
-        <v>217.87037952000003</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="4"/>
-        <v>2851.8942192590989</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="5">
-        <f t="shared" si="5"/>
-        <v>285.18942192590987</v>
-      </c>
-      <c r="AB19">
-        <v>13.089866669999999</v>
-      </c>
-      <c r="AC19">
-        <v>3439.7505183333337</v>
-      </c>
-      <c r="AD19">
-        <v>898.58125691785199</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="6"/>
-        <v>2.4551334128894902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="T19" s="4"/>
+      <c r="U19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="2">
         <v>123</v>
       </c>
@@ -2490,13 +1754,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>319</v>
@@ -2508,19 +1772,19 @@
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J20" s="2">
         <v>21</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L20" s="2">
         <v>40</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N20" s="2">
         <v>30</v>
@@ -2537,47 +1801,13 @@
       <c r="R20">
         <v>0.62305295949999995</v>
       </c>
-      <c r="S20">
-        <v>1.5</v>
-      </c>
-      <c r="T20" s="4">
-        <v>907793.24800000002</v>
-      </c>
-      <c r="U20" s="5">
-        <f t="shared" si="9"/>
-        <v>814.82691974162742</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="X20" s="5">
-        <f t="shared" si="3"/>
-        <v>653.61113855999997</v>
-      </c>
-      <c r="Y20" s="5">
-        <f t="shared" si="4"/>
-        <v>16296.538394832547</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="5">
-        <f t="shared" si="5"/>
-        <v>543.21794649441824</v>
-      </c>
-      <c r="AB20">
-        <v>24.933079370000002</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="6"/>
-        <v>2.7349741094586495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="T20" s="4"/>
+      <c r="U20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="2">
         <v>135</v>
       </c>
@@ -2585,13 +1815,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2">
         <v>303</v>
@@ -2603,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J21" s="2">
         <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L21" s="2">
         <v>40</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N21" s="2">
         <v>30</v>
@@ -2632,53 +1862,13 @@
       <c r="R21">
         <v>0.98039215690000003</v>
       </c>
-      <c r="S21">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="T21" s="4">
-        <v>515083.51400000002</v>
-      </c>
-      <c r="U21" s="5">
-        <f t="shared" si="9"/>
-        <v>398.31874102770109</v>
-      </c>
-      <c r="V21">
-        <v>8</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" si="3"/>
-        <v>988.96034688000009</v>
-      </c>
-      <c r="Y21" s="5">
-        <f t="shared" si="4"/>
-        <v>11949.562230831034</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="5">
-        <f t="shared" si="5"/>
-        <v>149.3695278853879</v>
-      </c>
-      <c r="AB21">
-        <v>12.082953850000001</v>
-      </c>
-      <c r="AC21">
-        <v>1077.18694465</v>
-      </c>
-      <c r="AD21">
-        <v>944.87654358067243</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="6"/>
-        <v>2.1742620083159032</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="T21" s="4"/>
+      <c r="U21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="2">
         <v>140</v>
       </c>
@@ -2686,13 +1876,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
         <v>150</v>
@@ -2704,19 +1894,19 @@
         <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J22" s="2">
         <v>32</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L22" s="2">
         <v>40</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N22" s="2">
         <v>30</v>
@@ -2733,51 +1923,11 @@
       <c r="R22">
         <v>1.9607843140000001</v>
       </c>
-      <c r="S22">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="T22" s="4">
-        <v>515083.51400000002</v>
-      </c>
-      <c r="U22" s="5">
-        <f>(S22*P22*T22*24)/(1000000)</f>
-        <v>404.54247122748802</v>
-      </c>
-      <c r="V22">
-        <v>4</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="X22" s="5">
-        <f t="shared" si="3"/>
-        <v>494.48017344000004</v>
-      </c>
-      <c r="Y22" s="5">
-        <f t="shared" si="4"/>
-        <v>12136.274136824642</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="5">
-        <f t="shared" si="5"/>
-        <v>303.40685342061602</v>
-      </c>
-      <c r="AB22">
-        <v>24.543500000000002</v>
-      </c>
-      <c r="AC22">
-        <v>1223.7766689999999</v>
-      </c>
-      <c r="AD22">
-        <v>4.8059657896329009</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="6"/>
-        <v>2.4820253865006117</v>
-      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="AA22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/CCSRawFLP.xlsx
+++ b/Data/CCSRawFLP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F31BD7FA-D9A8-BE4E-B8CD-3881A01AEE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ABCFC03-6809-1D43-ADCB-4261AE937012}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{F31BD7FA-D9A8-BE4E-B8CD-3881A01AEE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4433193B-F7E5-B14F-AEF9-9F60A2B7ADFE}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{5A3BD195-4F8C-2440-A73C-E07C9749CC02}"/>
+    <workbookView xWindow="30120" yWindow="-1460" windowWidth="21300" windowHeight="21100" xr2:uid="{5A3BD195-4F8C-2440-A73C-E07C9749CC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
   <si>
     <t>Slide number</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>bacteria</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5152B-7FE4-9C49-8D3E-DC81BE6C4A67}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AF1048576"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -589,7 +592,9 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -659,6 +664,9 @@
         <f>G2/(G2+F2)*100</f>
         <v>0.65573770491803274</v>
       </c>
+      <c r="S2" s="4">
+        <v>381026.94199999998</v>
+      </c>
       <c r="T2" s="4"/>
       <c r="U2" s="5"/>
       <c r="X2" s="5"/>
@@ -721,6 +729,9 @@
         <f t="shared" ref="R3:R5" si="0">G3/(G3+F3)*100</f>
         <v>0.32573289902280134</v>
       </c>
+      <c r="S3" s="4">
+        <v>317831.799</v>
+      </c>
       <c r="T3" s="4"/>
       <c r="U3" s="5"/>
       <c r="X3" s="5"/>
@@ -783,6 +794,9 @@
         <f t="shared" si="0"/>
         <v>0.66225165562913912</v>
       </c>
+      <c r="S4" s="4">
+        <v>1036428.52</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="5"/>
       <c r="X4" s="5"/>
@@ -845,6 +859,9 @@
         <f t="shared" si="0"/>
         <v>0.32467532467532467</v>
       </c>
+      <c r="S5" s="4">
+        <v>959287.26199999999</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="5"/>
       <c r="X5" s="5"/>
@@ -906,7 +923,9 @@
       <c r="R6" s="2">
         <v>1.587301587</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="4">
+        <v>1542260.84</v>
+      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="5"/>
       <c r="X6" s="5"/>
@@ -971,7 +990,9 @@
       <c r="R7" s="2">
         <v>1.923076923</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="4">
+        <v>1454528.5</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="5"/>
       <c r="X7" s="5"/>
@@ -1036,7 +1057,9 @@
       <c r="R8" s="2">
         <v>0.32040328089999998</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="4">
+        <v>940495.71699999995</v>
+      </c>
       <c r="T8" s="6"/>
       <c r="U8" s="5"/>
       <c r="V8" s="2"/>
@@ -1102,7 +1125,9 @@
       <c r="R9" s="2">
         <v>0.33003300330000002</v>
       </c>
-      <c r="S9" s="2"/>
+      <c r="S9" s="4">
+        <v>907026.16799999995</v>
+      </c>
       <c r="T9" s="6"/>
       <c r="U9" s="5"/>
       <c r="V9" s="2"/>
@@ -1168,7 +1193,9 @@
       <c r="R10" s="2">
         <v>0.87463556850000002</v>
       </c>
-      <c r="S10" s="2"/>
+      <c r="S10" s="4">
+        <v>371642.77600000001</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="V10" s="2"/>
@@ -1234,7 +1261,9 @@
       <c r="R11" s="2">
         <v>0.93167701859999996</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="4">
+        <v>490596.967</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="5"/>
       <c r="V11" s="2"/>
@@ -1300,7 +1329,9 @@
       <c r="R12" s="2">
         <v>0.5649717514</v>
       </c>
-      <c r="S12" s="2"/>
+      <c r="S12" s="4">
+        <v>426256.78200000001</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="5"/>
       <c r="V12" s="2"/>
@@ -1366,6 +1397,9 @@
       <c r="R13">
         <v>0.34804539720000005</v>
       </c>
+      <c r="S13" s="4">
+        <v>338137.217</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="5"/>
       <c r="V13" s="2"/>
@@ -1428,6 +1462,9 @@
       <c r="R14">
         <v>0.32154340840000001</v>
       </c>
+      <c r="S14" s="4">
+        <v>357910.80599999998</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
       <c r="V14" s="2"/>
@@ -1490,6 +1527,9 @@
       <c r="R15">
         <v>0.61349693250000004</v>
       </c>
+      <c r="S15" s="4">
+        <v>1060462.81</v>
+      </c>
       <c r="T15" s="4"/>
       <c r="U15" s="5"/>
       <c r="V15" s="2"/>
@@ -1552,6 +1592,9 @@
       <c r="R16">
         <v>1.286173633</v>
       </c>
+      <c r="S16" s="4">
+        <v>990391.18299999996</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="5"/>
       <c r="V16" s="2"/>
@@ -1614,7 +1657,9 @@
       <c r="R17" s="2">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
+      <c r="S17" s="4">
+        <v>443989.772</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="5"/>
       <c r="V17" s="2"/>
@@ -1677,7 +1722,9 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
+      <c r="S18" s="4">
+        <v>513176.005</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="5"/>
       <c r="V18" s="2"/>
@@ -1740,6 +1787,9 @@
       <c r="R19">
         <v>0.33112582779999999</v>
       </c>
+      <c r="S19" s="4">
+        <v>912927.25399999996</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="U19" s="5"/>
       <c r="X19" s="5"/>
@@ -1801,6 +1851,9 @@
       <c r="R20">
         <v>0.62305295949999995</v>
       </c>
+      <c r="S20" s="4">
+        <v>813150.12300000002</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="5"/>
       <c r="X20" s="5"/>
@@ -1862,6 +1915,9 @@
       <c r="R21">
         <v>0.98039215690000003</v>
       </c>
+      <c r="S21" s="4">
+        <v>522691.05900000001</v>
+      </c>
       <c r="T21" s="4"/>
       <c r="U21" s="5"/>
       <c r="X21" s="5"/>
@@ -1923,6 +1979,9 @@
       <c r="R22">
         <v>1.9607843140000001</v>
       </c>
+      <c r="S22" s="4">
+        <v>515083.51400000002</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="5"/>
       <c r="X22" s="5"/>

--- a/Data/CCSRawFLP.xlsx
+++ b/Data/CCSRawFLP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{FD0F7901-BC7C-FE4D-9FA2-A37EA557B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A648ADE-7B59-6444-B089-D25A8CF748D9}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{FD0F7901-BC7C-FE4D-9FA2-A37EA557B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6FC940-301A-BF4A-B56F-E98922D1EBF3}"/>
   <bookViews>
-    <workbookView xWindow="36700" yWindow="40" windowWidth="26840" windowHeight="15940" xr2:uid="{205F464C-B4F4-474A-9FE7-F753364ECD91}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{205F464C-B4F4-474A-9FE7-F753364ECD91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -196,6 +196,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,7 +522,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,7 +627,7 @@
         <v>7308.5088888888895</v>
       </c>
       <c r="O2" s="3">
-        <f>((H2*490.87)/((0.0625*K2)))/M2</f>
+        <f t="shared" ref="O2:O43" si="0">((H2*490.87)/((0.0625*K2)))/M2</f>
         <v>0</v>
       </c>
       <c r="P2" s="3">
@@ -672,15 +676,15 @@
         <v>30</v>
       </c>
       <c r="N3" s="3">
-        <f>((G3*490.87)/((0.0625*K3)))/M3</f>
+        <f t="shared" ref="N2:N43" si="1">((G3*490.87)/((0.0625*K3)))/M3</f>
         <v>5832.2628148148151</v>
       </c>
       <c r="O3" s="3">
-        <f>((H3*490.87)/((0.0625*K3)))/M3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P43" si="0">(H3/(H3+G3))*100</f>
+        <f t="shared" ref="P3:P43" si="2">(H3/(H3+G3))*100</f>
         <v>0</v>
       </c>
     </row>
@@ -725,15 +729,15 @@
         <v>30</v>
       </c>
       <c r="N4" s="3">
-        <f>((G4*490.87)/((0.0625*K4)))/M4</f>
+        <f t="shared" si="1"/>
         <v>7330.3253333333323</v>
       </c>
       <c r="O4" s="3">
-        <f>((H4*490.87)/((0.0625*K4)))/M4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -778,15 +782,15 @@
         <v>30</v>
       </c>
       <c r="N5" s="3">
-        <f>((G5*490.87)/((0.0625*K5)))/M5</f>
+        <f t="shared" si="1"/>
         <v>2871.3255913978492</v>
       </c>
       <c r="O5" s="3">
-        <f>((H5*490.87)/((0.0625*K5)))/M5</f>
+        <f t="shared" si="0"/>
         <v>25.335225806451614</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.87463556851311952</v>
       </c>
     </row>
@@ -831,15 +835,15 @@
         <v>30</v>
       </c>
       <c r="N6" s="3">
-        <f>((G6*490.87)/((0.0625*K6)))/M6</f>
+        <f t="shared" si="1"/>
         <v>3340.5339733333331</v>
       </c>
       <c r="O6" s="3">
-        <f>((H6*490.87)/((0.0625*K6)))/M6</f>
+        <f t="shared" si="0"/>
         <v>31.415680000000002</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.93167701863354035</v>
       </c>
     </row>
@@ -884,15 +888,15 @@
         <v>30</v>
       </c>
       <c r="N7" s="3">
-        <f>((G7*490.87)/((0.0625*K7)))/M7</f>
+        <f t="shared" si="1"/>
         <v>6143.5107555555551</v>
       </c>
       <c r="O7" s="3">
-        <f>((H7*490.87)/((0.0625*K7)))/M7</f>
+        <f t="shared" si="0"/>
         <v>34.906311111111108</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56497175141242939</v>
       </c>
     </row>
@@ -937,15 +941,15 @@
         <v>30</v>
       </c>
       <c r="N8" s="3">
-        <f>((G8*490.87)/((0.0625*K8)))/M8</f>
+        <f t="shared" si="1"/>
         <v>8482.2335999999996</v>
       </c>
       <c r="O8" s="3">
-        <f>((H8*490.87)/((0.0625*K8)))/M8</f>
+        <f t="shared" si="0"/>
         <v>26.179733333333335</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30769230769230771</v>
       </c>
     </row>
@@ -990,15 +994,15 @@
         <v>30</v>
       </c>
       <c r="N9" s="3">
-        <f>((G9*490.87)/((0.0625*K9)))/M9</f>
+        <f t="shared" si="1"/>
         <v>7932.4592000000002</v>
       </c>
       <c r="O9" s="3">
-        <f>((H9*490.87)/((0.0625*K9)))/M9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1043,15 +1047,15 @@
         <v>30</v>
       </c>
       <c r="N10" s="3">
-        <f>((G10*490.87)/((0.0625*K10)))/M10</f>
+        <f t="shared" si="1"/>
         <v>12940.26819047619</v>
       </c>
       <c r="O10" s="3">
-        <f>((H10*490.87)/((0.0625*K10)))/M10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1096,15 +1100,15 @@
         <v>30</v>
       </c>
       <c r="N11" s="3">
-        <f>((G11*490.87)/((0.0625*K11)))/M11</f>
+        <f t="shared" si="1"/>
         <v>4666.1524705882357</v>
       </c>
       <c r="O11" s="3">
-        <f>((H11*490.87)/((0.0625*K11)))/M11</f>
+        <f t="shared" si="0"/>
         <v>30.799686274509803</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65573770491803274</v>
       </c>
     </row>
@@ -1149,15 +1153,15 @@
         <v>30</v>
       </c>
       <c r="N12" s="3">
-        <f>((G12*490.87)/((0.0625*K12)))/M12</f>
+        <f t="shared" si="1"/>
         <v>13526.195555555556</v>
       </c>
       <c r="O12" s="3">
-        <f>((H12*490.87)/((0.0625*K12)))/M12</f>
+        <f t="shared" si="0"/>
         <v>43.632888888888893</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.32154340836012862</v>
       </c>
     </row>
@@ -1202,15 +1206,15 @@
         <v>10</v>
       </c>
       <c r="N13" s="3">
-        <f>((G13*490.87)/((0.0625*K13)))/M13</f>
+        <f t="shared" si="1"/>
         <v>7045.4282352941182</v>
       </c>
       <c r="O13" s="3">
-        <f>((H13*490.87)/((0.0625*K13)))/M13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1255,15 +1259,15 @@
         <v>10</v>
       </c>
       <c r="N14" s="3">
-        <f>((G14*490.87)/((0.0625*K14)))/M14</f>
+        <f t="shared" si="1"/>
         <v>5570.8037209302329</v>
       </c>
       <c r="O14" s="3">
-        <f>((H14*490.87)/((0.0625*K14)))/M14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1308,15 +1312,15 @@
         <v>10</v>
       </c>
       <c r="N15" s="3">
-        <f>((G15*490.87)/((0.0625*K15)))/M15</f>
+        <f t="shared" si="1"/>
         <v>5783.3410909090908</v>
       </c>
       <c r="O15" s="3">
-        <f>((H15*490.87)/((0.0625*K15)))/M15</f>
+        <f t="shared" si="0"/>
         <v>35.699636363636365</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.61349693251533743</v>
       </c>
     </row>
@@ -1361,15 +1365,15 @@
         <v>10</v>
       </c>
       <c r="N16" s="3">
-        <f>((G16*490.87)/((0.0625*K16)))/M16</f>
+        <f t="shared" si="1"/>
         <v>7091.6277647058832</v>
       </c>
       <c r="O16" s="3">
-        <f>((H16*490.87)/((0.0625*K16)))/M16</f>
+        <f t="shared" si="0"/>
         <v>92.399058823529415</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2861736334405145</v>
       </c>
     </row>
@@ -1414,15 +1418,15 @@
         <v>30</v>
       </c>
       <c r="N17" s="3">
-        <f>((G17*490.87)/((0.0625*K17)))/M17</f>
+        <f t="shared" si="1"/>
         <v>2013.8256410256411</v>
       </c>
       <c r="O17" s="3">
-        <f>((H17*490.87)/((0.0625*K17)))/M17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1467,15 +1471,15 @@
         <v>30</v>
       </c>
       <c r="N18" s="3">
-        <f>((G18*490.87)/((0.0625*K18)))/M18</f>
+        <f t="shared" si="1"/>
         <v>1151.9082666666666</v>
       </c>
       <c r="O18" s="3">
-        <f>((H18*490.87)/((0.0625*K18)))/M18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1520,15 +1524,15 @@
         <v>30</v>
       </c>
       <c r="N19" s="3">
-        <f>((G19*490.87)/((0.0625*K19)))/M19</f>
+        <f t="shared" si="1"/>
         <v>2705.2391111111115</v>
       </c>
       <c r="O19" s="3">
-        <f>((H19*490.87)/((0.0625*K19)))/M19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1573,15 +1577,15 @@
         <v>30</v>
       </c>
       <c r="N20" s="3">
-        <f>((G20*490.87)/((0.0625*K20)))/M20</f>
+        <f t="shared" si="1"/>
         <v>2833.0211428571429</v>
       </c>
       <c r="O20" s="3">
-        <f>((H20*490.87)/((0.0625*K20)))/M20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1626,15 +1630,15 @@
         <v>30</v>
       </c>
       <c r="N21" s="3">
-        <f>((G21*490.87)/((0.0625*K21)))/M21</f>
+        <f t="shared" si="1"/>
         <v>2108.1574736842103</v>
       </c>
       <c r="O21" s="3">
-        <f>((H21*490.87)/((0.0625*K21)))/M21</f>
+        <f t="shared" si="0"/>
         <v>6.8894035087719301</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.32573289902280134</v>
       </c>
     </row>
@@ -1679,15 +1683,15 @@
         <v>30</v>
       </c>
       <c r="N22" s="3">
-        <f>((G22*490.87)/((0.0625*K22)))/M22</f>
+        <f t="shared" si="1"/>
         <v>1983.1148000000001</v>
       </c>
       <c r="O22" s="3">
-        <f>((H22*490.87)/((0.0625*K22)))/M22</f>
+        <f t="shared" si="0"/>
         <v>13.089866666666667</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65573770491803274</v>
       </c>
     </row>
@@ -1732,15 +1736,15 @@
         <v>30</v>
       </c>
       <c r="N23" s="3">
-        <f>((G23*490.87)/((0.0625*K23)))/M23</f>
+        <f t="shared" si="1"/>
         <v>2193.4371171171169</v>
       </c>
       <c r="O23" s="3">
-        <f>((H23*490.87)/((0.0625*K23)))/M23</f>
+        <f t="shared" si="0"/>
         <v>28.302414414414418</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2738853503184715</v>
       </c>
     </row>
@@ -1785,15 +1789,15 @@
         <v>30</v>
       </c>
       <c r="N24" s="3">
-        <f>((G24*490.87)/((0.0625*K24)))/M24</f>
+        <f t="shared" si="1"/>
         <v>2644.1530666666667</v>
       </c>
       <c r="O24" s="3">
-        <f>((H24*490.87)/((0.0625*K24)))/M24</f>
+        <f t="shared" si="0"/>
         <v>17.453155555555554</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65573770491803274</v>
       </c>
     </row>
@@ -1838,15 +1842,15 @@
         <v>30</v>
       </c>
       <c r="N25" s="3">
-        <f>((G25*490.87)/((0.0625*K25)))/M25</f>
+        <f t="shared" si="1"/>
         <v>4989.5491764705885</v>
       </c>
       <c r="O25" s="3">
-        <f>((H25*490.87)/((0.0625*K25)))/M25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1891,15 +1895,15 @@
         <v>30</v>
       </c>
       <c r="N26" s="3">
-        <f>((G26*490.87)/((0.0625*K26)))/M26</f>
+        <f t="shared" si="1"/>
         <v>3979.3194666666668</v>
       </c>
       <c r="O26" s="3">
-        <f>((H26*490.87)/((0.0625*K26)))/M26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1944,15 +1948,15 @@
         <v>30</v>
       </c>
       <c r="N27" s="3">
-        <f>((G27*490.87)/((0.0625*K27)))/M27</f>
+        <f t="shared" si="1"/>
         <v>4230.0937543859645</v>
       </c>
       <c r="O27" s="3">
-        <f>((H27*490.87)/((0.0625*K27)))/M27</f>
+        <f t="shared" si="0"/>
         <v>13.77880701754386</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.32467532467532467</v>
       </c>
     </row>
@@ -1997,15 +2001,15 @@
         <v>30</v>
       </c>
       <c r="N28" s="3">
-        <f>((G28*490.87)/((0.0625*K28)))/M28</f>
+        <f t="shared" si="1"/>
         <v>3414.7478260869561</v>
       </c>
       <c r="O28" s="3">
-        <f>((H28*490.87)/((0.0625*K28)))/M28</f>
+        <f t="shared" si="0"/>
         <v>22.764985507246376</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66225165562913912</v>
       </c>
     </row>
@@ -2050,15 +2054,15 @@
         <v>30</v>
       </c>
       <c r="N29" s="3">
-        <f>((G29*490.87)/((0.0625*K29)))/M29</f>
+        <f t="shared" si="1"/>
         <v>2402.375529411765</v>
       </c>
       <c r="O29" s="3">
-        <f>((H29*490.87)/((0.0625*K29)))/M29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2103,15 +2107,15 @@
         <v>30</v>
       </c>
       <c r="N30" s="3">
-        <f>((G30*490.87)/((0.0625*K30)))/M30</f>
+        <f t="shared" si="1"/>
         <v>3940.0498666666667</v>
       </c>
       <c r="O30" s="3">
-        <f>((H30*490.87)/((0.0625*K30)))/M30</f>
+        <f t="shared" si="0"/>
         <v>13.089866666666667</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33112582781456956</v>
       </c>
     </row>
@@ -2156,15 +2160,15 @@
         <v>30</v>
       </c>
       <c r="N31" s="3">
-        <f>((G31*490.87)/((0.0625*K31)))/M31</f>
+        <f t="shared" si="1"/>
         <v>3976.826158730159</v>
       </c>
       <c r="O31" s="3">
-        <f>((H31*490.87)/((0.0625*K31)))/M31</f>
+        <f t="shared" si="0"/>
         <v>24.933079365079365</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.62305295950155759</v>
       </c>
     </row>
@@ -2209,15 +2213,15 @@
         <v>30</v>
       </c>
       <c r="N32" s="3">
-        <f>((G32*490.87)/((0.0625*K32)))/M32</f>
+        <f t="shared" si="1"/>
         <v>409.05833333333334</v>
       </c>
       <c r="O32" s="3">
-        <f>((H32*490.87)/((0.0625*K32)))/M32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2262,15 +2266,15 @@
         <v>30</v>
       </c>
       <c r="N33" s="3">
-        <f>((G33*490.87)/((0.0625*K33)))/M33</f>
+        <f t="shared" si="1"/>
         <v>1745.3155555555556</v>
       </c>
       <c r="O33" s="3">
-        <f>((H33*490.87)/((0.0625*K33)))/M33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2315,15 +2319,15 @@
         <v>30</v>
       </c>
       <c r="N34" s="3">
-        <f>((G34*490.87)/((0.0625*K34)))/M34</f>
+        <f t="shared" si="1"/>
         <v>1220.3783384615385</v>
       </c>
       <c r="O34" s="3">
-        <f>((H34*490.87)/((0.0625*K34)))/M34</f>
+        <f t="shared" si="0"/>
         <v>12.082953846153847</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.98039215686274506</v>
       </c>
     </row>
@@ -2368,15 +2372,15 @@
         <v>30</v>
       </c>
       <c r="N35" s="3">
-        <f>((G35*490.87)/((0.0625*K35)))/M35</f>
+        <f t="shared" si="1"/>
         <v>1227.175</v>
       </c>
       <c r="O35" s="3">
-        <f>((H35*490.87)/((0.0625*K35)))/M35</f>
+        <f t="shared" si="0"/>
         <v>24.543500000000002</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9607843137254901</v>
       </c>
     </row>
@@ -2421,15 +2425,15 @@
         <v>30</v>
       </c>
       <c r="N36" s="3">
-        <f>((G36*490.87)/((0.0625*K36)))/M36</f>
+        <f t="shared" si="1"/>
         <v>1259.1205079365079</v>
       </c>
       <c r="O36" s="3">
-        <f>((H36*490.87)/((0.0625*K36)))/M36</f>
+        <f t="shared" si="0"/>
         <v>4.1555132275132278</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3289473684210526</v>
       </c>
     </row>
@@ -2474,15 +2478,15 @@
         <v>30</v>
       </c>
       <c r="N37" s="3">
-        <f>((G37*490.87)/((0.0625*K37)))/M37</f>
+        <f t="shared" si="1"/>
         <v>1017.3643206751054</v>
       </c>
       <c r="O37" s="3">
-        <f>((H37*490.87)/((0.0625*K37)))/M37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2527,15 +2531,15 @@
         <v>30</v>
       </c>
       <c r="N38" s="3">
-        <f>((G38*490.87)/((0.0625*K38)))/M38</f>
+        <f t="shared" si="1"/>
         <v>1953.9020487804878</v>
       </c>
       <c r="O38" s="3">
-        <f>((H38*490.87)/((0.0625*K38)))/M38</f>
+        <f t="shared" si="0"/>
         <v>12.77060162601626</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64935064935064934</v>
       </c>
     </row>
@@ -2580,15 +2584,15 @@
         <v>30</v>
       </c>
       <c r="N39" s="3">
-        <f>((G39*490.87)/((0.0625*K39)))/M39</f>
+        <f t="shared" si="1"/>
         <v>1718.7564057971015</v>
       </c>
       <c r="O39" s="3">
-        <f>((H39*490.87)/((0.0625*K39)))/M39</f>
+        <f t="shared" si="0"/>
         <v>5.691246376811594</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33003300330033003</v>
       </c>
     </row>
@@ -2633,15 +2637,15 @@
         <v>10</v>
       </c>
       <c r="N40" s="3">
-        <f>((G40*490.87)/((0.0625*K40)))/M40</f>
+        <f t="shared" si="1"/>
         <v>6474.1772972972976</v>
       </c>
       <c r="O40" s="3">
-        <f>((H40*490.87)/((0.0625*K40)))/M40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2686,15 +2690,15 @@
         <v>10</v>
       </c>
       <c r="N41" s="3">
-        <f>((G41*490.87)/((0.0625*K41)))/M41</f>
+        <f t="shared" si="1"/>
         <v>5479.894181818182</v>
       </c>
       <c r="O41" s="3">
-        <f>((H41*490.87)/((0.0625*K41)))/M41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2739,15 +2743,15 @@
         <v>10</v>
       </c>
       <c r="N42" s="3">
-        <f>((G42*490.87)/((0.0625*K42)))/M42</f>
+        <f t="shared" si="1"/>
         <v>5938.3297560975616</v>
       </c>
       <c r="O42" s="3">
-        <f>((H42*490.87)/((0.0625*K42)))/M42</f>
+        <f t="shared" si="0"/>
         <v>95.779512195121953</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5873015873015872</v>
       </c>
     </row>
@@ -2792,15 +2796,15 @@
         <v>10</v>
       </c>
       <c r="N43" s="3">
-        <f>((G43*490.87)/((0.0625*K43)))/M43</f>
+        <f t="shared" si="1"/>
         <v>7752.5790967741941</v>
       </c>
       <c r="O43" s="3">
-        <f>((H43*490.87)/((0.0625*K43)))/M43</f>
+        <f t="shared" si="0"/>
         <v>152.01135483870968</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9230769230769231</v>
       </c>
     </row>
